--- a/biology/Botanique/Aureoboletus/Aureoboletus.xlsx
+++ b/biology/Botanique/Aureoboletus/Aureoboletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aureoboletus  est un genre de champignons basidiomycètes de la famille des Boletaceae.
 </t>
@@ -511,25 +523,132 @@
           <t>Sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuticule visqueuse ou viscidule à sec, ridulée et blanche.
 Hyménium tubulé, jaune vif au début, immuable. 
 Stipe glabre, parfois superficiellement pruineux, visqueux à sec. 
 Sporée brun olive, lisse, fusiforme, inamyloïde. 
-Habitat
-Surtout dans les zones tempérées nord et tropicales nord, peut-être tropiques du sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aureoboletus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sporophore</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Surtout dans les zones tempérées nord et tropicales nord, peut-être tropiques du sud.
 Mycorhizes avec les Pinacées et les Fagacées.
-Liste des espèces d'Aureoboletus
- Aureoboletus auriporus (Peck) Pouzar, Amérique du Nord, Amérique du Sud
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aureoboletus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces d'Aureoboletus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aureoboletus auriporus (Peck) Pouzar, Amérique du Nord, Amérique du Sud
  Aureoboletus gentilis (Quelet) Pouzar, Afrique, Europe, Amérique du Nord
  Aureoboletus novoguineensis
  Aureoboletus subacidus (Murill), Amérique du Nord
   Aureoboletus thibetanus (Pat.) Hongo &amp; Nagas, Asie
 Aureoboletus projectellus , pays baltes
-Anciens aureoboletus
-Aureoboletus reticuloceps[1] (synonyme)
-Boletus reticuloceps [2]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aureoboletus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anciens aureoboletus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aureoboletus reticuloceps (synonyme)
+Boletus reticuloceps 
 </t>
         </is>
       </c>
